--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_24_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_24_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_2</t>
+          <t>model_24_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9437800338041891</v>
+        <v>0.9656786972279841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7640260509133519</v>
+        <v>0.8097339845620792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9228651454648196</v>
+        <v>0.9741554390500656</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9622777274670992</v>
+        <v>0.4691932661679388</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9379202193420709</v>
+        <v>0.7789249559313816</v>
       </c>
       <c r="G2" t="n">
-        <v>0.375943172820529</v>
+        <v>0.2295067096715387</v>
       </c>
       <c r="H2" t="n">
-        <v>1.577958884102542</v>
+        <v>1.27230972132782</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8617395164066177</v>
+        <v>0.1020006716254319</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1662834401870449</v>
+        <v>1.320847756707283</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5140114782968314</v>
+        <v>0.7114244846822418</v>
       </c>
       <c r="L2" t="n">
-        <v>2.036930147293756</v>
+        <v>1.0577907363021</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6131420494636859</v>
+        <v>0.4790685855611269</v>
       </c>
       <c r="N2" t="n">
-        <v>1.079369364041145</v>
+        <v>1.048453603913434</v>
       </c>
       <c r="O2" t="n">
-        <v>0.639244775888372</v>
+        <v>0.4994635270571497</v>
       </c>
       <c r="P2" t="n">
-        <v>83.95663456626013</v>
+        <v>84.94364602773467</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.9305433858564</v>
+        <v>134.9175548473309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_1</t>
+          <t>model_24_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.942337043516024</v>
+        <v>0.9659791215830593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7637342207085479</v>
+        <v>0.8094701961116175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9404351577647982</v>
+        <v>0.9745917396299414</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9764204143714856</v>
+        <v>0.4746291311189353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9535383717611927</v>
+        <v>0.7812942640221745</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3855924555218481</v>
+        <v>0.2274977706258236</v>
       </c>
       <c r="H3" t="n">
-        <v>1.579910354025821</v>
+        <v>1.274073675910691</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6654498624767409</v>
+        <v>0.1002787250903714</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1039411030466051</v>
+        <v>1.307321270382489</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3846954670587557</v>
+        <v>0.7037999977364304</v>
       </c>
       <c r="L3" t="n">
-        <v>2.133877912346751</v>
+        <v>1.041769221349316</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6209609130386937</v>
+        <v>0.476967263683603</v>
       </c>
       <c r="N3" t="n">
-        <v>1.081406526800907</v>
+        <v>1.048029475412152</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6473965046730469</v>
+        <v>0.4972727475569637</v>
       </c>
       <c r="P3" t="n">
-        <v>83.90594856398505</v>
+        <v>84.96122968017215</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.8798573835813</v>
+        <v>134.9351384997684</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_3</t>
+          <t>model_24_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9437065927116151</v>
+        <v>0.9663295126654076</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7633126739320316</v>
+        <v>0.8091803501997542</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9049297287039832</v>
+        <v>0.9750733982144753</v>
       </c>
       <c r="E4" t="n">
-        <v>0.948895608734833</v>
+        <v>0.4810840752766887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9222580108046399</v>
+        <v>0.7840853105301887</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3764342737447368</v>
+        <v>0.2251547038447578</v>
       </c>
       <c r="H4" t="n">
-        <v>1.58272923926143</v>
+        <v>1.276011876857939</v>
       </c>
       <c r="I4" t="n">
-        <v>1.062111416492137</v>
+        <v>0.09837776421849667</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2252731189730169</v>
+        <v>1.291258929860003</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6436922677325769</v>
+        <v>0.6948183470392499</v>
       </c>
       <c r="L4" t="n">
-        <v>1.937984412845304</v>
+        <v>1.022952574271271</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6135423976749583</v>
+        <v>0.4745046931746385</v>
       </c>
       <c r="N4" t="n">
-        <v>1.079473045583602</v>
+        <v>1.047534805648836</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6396621677518335</v>
+        <v>0.494705340323209</v>
       </c>
       <c r="P4" t="n">
-        <v>83.95402363741746</v>
+        <v>84.98193508080824</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.9279324570137</v>
+        <v>134.9558439004045</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_4</t>
+          <t>model_24_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9428356446005532</v>
+        <v>0.9667360852575324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.762190801216607</v>
+        <v>0.8088601991924494</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8880323373900669</v>
+        <v>0.9756032067956891</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9367383476312335</v>
+        <v>0.4887136730330428</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9076221466903325</v>
+        <v>0.7873600415809967</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3822583077737539</v>
+        <v>0.2224359510491243</v>
       </c>
       <c r="H5" t="n">
-        <v>1.590231207275223</v>
+        <v>1.278152728117946</v>
       </c>
       <c r="I5" t="n">
-        <v>1.250886645370625</v>
+        <v>0.09628676986106016</v>
       </c>
       <c r="J5" t="n">
-        <v>0.278863506397197</v>
+        <v>1.27227360725811</v>
       </c>
       <c r="K5" t="n">
-        <v>0.764875075883911</v>
+        <v>0.6842801885595851</v>
       </c>
       <c r="L5" t="n">
-        <v>1.840208908685015</v>
+        <v>1.000888676765446</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6182704163824709</v>
+        <v>0.4716311599641443</v>
       </c>
       <c r="N5" t="n">
-        <v>1.080702619387454</v>
+        <v>1.046960820812895</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6445914680040727</v>
+        <v>0.4917094748549103</v>
       </c>
       <c r="P5" t="n">
-        <v>83.9233174010681</v>
+        <v>85.00623215853798</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.8972262206643</v>
+        <v>134.9801409781342</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_0</t>
+          <t>model_24_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.938332670198871</v>
+        <v>0.967204728251153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7614640166643015</v>
+        <v>0.8085040168254256</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9557664961372797</v>
+        <v>0.9761841791390049</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9896147103292728</v>
+        <v>0.4976843573133699</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9673937598949083</v>
+        <v>0.7911846534841251</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4123697183320942</v>
+        <v>0.2193021331928812</v>
       </c>
       <c r="H6" t="n">
-        <v>1.595091218923025</v>
+        <v>1.280534521246304</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4941703521362792</v>
+        <v>0.09399384759672777</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04577936528827416</v>
+        <v>1.249951154560009</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2699748855504207</v>
+        <v>0.6719725010783686</v>
       </c>
       <c r="L6" t="n">
-        <v>2.226653015579146</v>
+        <v>0.9750338135262908</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6421601967827765</v>
+        <v>0.4682970565708065</v>
       </c>
       <c r="N6" t="n">
-        <v>1.087059759719241</v>
+        <v>1.046299207174843</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6694982858146823</v>
+        <v>0.4882334317775726</v>
       </c>
       <c r="P6" t="n">
-        <v>83.77166991488002</v>
+        <v>85.03460979264777</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.7455787344763</v>
+        <v>135.008518612244</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_5</t>
+          <t>model_24_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9416165630804916</v>
+        <v>0.9677400076811781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7609716780825756</v>
+        <v>0.808104012249756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8730222468873149</v>
+        <v>0.976817338487013</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9256445087458134</v>
+        <v>0.5081605080889119</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8945426097828457</v>
+        <v>0.7956233281881921</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3904103115117608</v>
+        <v>0.2157227171795682</v>
       </c>
       <c r="H7" t="n">
-        <v>1.598383489286037</v>
+        <v>1.283209353685658</v>
       </c>
       <c r="I7" t="n">
-        <v>1.418577220649557</v>
+        <v>0.09149495899622631</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3277662254245178</v>
+        <v>1.223882532274634</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8731717230370375</v>
+        <v>0.6576887456354299</v>
       </c>
       <c r="L7" t="n">
-        <v>1.746212325645398</v>
+        <v>0.9448136182775483</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6248282256042542</v>
+        <v>0.4644595969291281</v>
       </c>
       <c r="N7" t="n">
-        <v>1.082423675651071</v>
+        <v>1.045543518567749</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6514284567409639</v>
+        <v>0.4842326035343114</v>
       </c>
       <c r="P7" t="n">
-        <v>83.88111402421639</v>
+        <v>85.06752282545887</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.8550228438126</v>
+        <v>135.0414316450551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_6</t>
+          <t>model_24_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.940304819062372</v>
+        <v>0.9683450736009289</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7598010461610128</v>
+        <v>0.8076495871071623</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8602741340796377</v>
+        <v>0.9775012836414659</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9152593448999741</v>
+        <v>0.5203000688173807</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8831777595273815</v>
+        <v>0.8007362723724097</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3991819498009528</v>
+        <v>0.2116766385881221</v>
       </c>
       <c r="H8" t="n">
-        <v>1.606211510335791</v>
+        <v>1.286248096706617</v>
       </c>
       <c r="I8" t="n">
-        <v>1.560997305994689</v>
+        <v>0.08879563416558581</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3735450360644687</v>
+        <v>1.19367471738907</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9672710162130543</v>
+        <v>0.6412351757773278</v>
       </c>
       <c r="L8" t="n">
-        <v>1.657643046191864</v>
+        <v>0.909571814060224</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6318084755691021</v>
+        <v>0.4600832952717607</v>
       </c>
       <c r="N8" t="n">
-        <v>1.084275549559004</v>
+        <v>1.044689307857512</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6587058703979249</v>
+        <v>0.4796699936551965</v>
       </c>
       <c r="P8" t="n">
-        <v>83.83667590299315</v>
+        <v>85.10539091685463</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.8105847225894</v>
+        <v>135.0792997364509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_7</t>
+          <t>model_24_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9390287275898215</v>
+        <v>0.9690196536147366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7587387209292002</v>
+        <v>0.8071262940884321</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8498295037350293</v>
+        <v>0.9782304389064034</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9052365779914482</v>
+        <v>0.5342424904756073</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8734633677804398</v>
+        <v>0.8065739830634955</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4077151793537588</v>
+        <v>0.2071657189296341</v>
       </c>
       <c r="H9" t="n">
-        <v>1.61331528405248</v>
+        <v>1.289747359532409</v>
       </c>
       <c r="I9" t="n">
-        <v>1.677683216099098</v>
+        <v>0.08591787869173928</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4177263658157169</v>
+        <v>1.158980703171529</v>
       </c>
       <c r="K9" t="n">
-        <v>1.04770475501948</v>
+        <v>0.6224492909316341</v>
       </c>
       <c r="L9" t="n">
-        <v>1.575467851123529</v>
+        <v>0.8686010998137962</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6385257859740348</v>
+        <v>0.45515460991803</v>
       </c>
       <c r="N9" t="n">
-        <v>1.086077090461429</v>
+        <v>1.043736959602725</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6657091506135449</v>
+        <v>0.4745314839621723</v>
       </c>
       <c r="P9" t="n">
-        <v>83.79437287635071</v>
+        <v>85.14847246293267</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.7682816959469</v>
+        <v>135.1223812825289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_8</t>
+          <t>model_24_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9378366197629426</v>
+        <v>0.9697589636342077</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7577987763387899</v>
+        <v>0.8065146989938996</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8415213211646795</v>
+        <v>0.978992628904335</v>
       </c>
       <c r="E10" t="n">
-        <v>0.895301466160796</v>
+        <v>0.5500884447464995</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8652136544952722</v>
+        <v>0.8131677439441392</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4156868098812495</v>
+        <v>0.2022219494252224</v>
       </c>
       <c r="H10" t="n">
-        <v>1.619600697856601</v>
+        <v>1.293837098745684</v>
       </c>
       <c r="I10" t="n">
-        <v>1.770501038515887</v>
+        <v>0.0829097451101389</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4615213034723222</v>
+        <v>1.11954998042901</v>
       </c>
       <c r="K10" t="n">
-        <v>1.116011170994105</v>
+        <v>0.6012304195009273</v>
       </c>
       <c r="L10" t="n">
-        <v>1.500116658812698</v>
+        <v>0.8430051262425446</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6447377838169944</v>
+        <v>0.4496909487917479</v>
       </c>
       <c r="N10" t="n">
-        <v>1.087760066217022</v>
+        <v>1.04269322781053</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6721856060652877</v>
+        <v>0.4688352234704066</v>
       </c>
       <c r="P10" t="n">
-        <v>83.75564632625063</v>
+        <v>85.19677885048915</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7295551458469</v>
+        <v>135.1706876700854</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_9</t>
+          <t>model_24_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9367299091448675</v>
+        <v>0.970552035420423</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7569684442714713</v>
+        <v>0.805789523562319</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8350630237389033</v>
+        <v>0.9797678783677395</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8852745582377525</v>
+        <v>0.5678813570415645</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8581875182553721</v>
+        <v>0.8205227974811201</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4230873888802508</v>
+        <v>0.1969186747390399</v>
       </c>
       <c r="H11" t="n">
-        <v>1.625153132214088</v>
+        <v>1.29868635019579</v>
       </c>
       <c r="I11" t="n">
-        <v>1.842652209786458</v>
+        <v>0.07985006976499795</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5057208872176602</v>
+        <v>1.075274490326314</v>
       </c>
       <c r="K11" t="n">
-        <v>1.174186548502059</v>
+        <v>0.5775616911087129</v>
       </c>
       <c r="L11" t="n">
-        <v>1.431687795460407</v>
+        <v>0.8849784735235121</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6504516806652519</v>
+        <v>0.4437551968586282</v>
       </c>
       <c r="N11" t="n">
-        <v>1.089322481207246</v>
+        <v>1.04157359705352</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6781427553317725</v>
+        <v>0.4626467742887937</v>
       </c>
       <c r="P11" t="n">
-        <v>83.72035305635151</v>
+        <v>85.2499289081215</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.6942618759477</v>
+        <v>135.2238377277177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_10</t>
+          <t>model_24_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9356874356116024</v>
+        <v>0.9713793927613067</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7562211258935991</v>
+        <v>0.8049178019798537</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8301187488416413</v>
+        <v>0.980524395155484</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8750737064819527</v>
+        <v>0.5875915788766534</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8521365007946937</v>
+        <v>0.8286071170787723</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4300584141973446</v>
+        <v>0.1913861323909209</v>
       </c>
       <c r="H12" t="n">
-        <v>1.630150453648004</v>
+        <v>1.304515556431644</v>
       </c>
       <c r="I12" t="n">
-        <v>1.897888938819307</v>
+        <v>0.0768643266295143</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5506872322678692</v>
+        <v>1.026228009496783</v>
       </c>
       <c r="K12" t="n">
-        <v>1.224288085543588</v>
+        <v>0.5515461680631486</v>
       </c>
       <c r="L12" t="n">
-        <v>1.370041775085432</v>
+        <v>0.9302695503068036</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6557883913255438</v>
+        <v>0.4374770078426075</v>
       </c>
       <c r="N12" t="n">
-        <v>1.090794208548326</v>
+        <v>1.040405563160508</v>
       </c>
       <c r="O12" t="n">
-        <v>0.683706660813387</v>
+        <v>0.456101309768718</v>
       </c>
       <c r="P12" t="n">
-        <v>83.68766846510064</v>
+        <v>85.30692451227225</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.6615772846969</v>
+        <v>135.2808333318685</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_11</t>
+          <t>model_24_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9346836996620295</v>
+        <v>0.9722106761221775</v>
       </c>
       <c r="C13" t="n">
-        <v>0.755527192656694</v>
+        <v>0.8038578573601576</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8263565319487551</v>
+        <v>0.9812149491318245</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8647090408986314</v>
+        <v>0.6090831983777305</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8468393417964853</v>
+        <v>0.8373399146007556</v>
       </c>
       <c r="G13" t="n">
-        <v>0.436770401113918</v>
+        <v>0.1858273367290698</v>
       </c>
       <c r="H13" t="n">
-        <v>1.634790788398457</v>
+        <v>1.311603410984148</v>
       </c>
       <c r="I13" t="n">
-        <v>1.939919885599843</v>
+        <v>0.07413891877612512</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5963756845762432</v>
+        <v>0.9727487380469493</v>
       </c>
       <c r="K13" t="n">
-        <v>1.268147785088043</v>
+        <v>0.5234438284115371</v>
       </c>
       <c r="L13" t="n">
-        <v>1.314840601886769</v>
+        <v>0.9794007133691135</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6608860727189808</v>
+        <v>0.4310769498930206</v>
       </c>
       <c r="N13" t="n">
-        <v>1.092211247535958</v>
+        <v>1.039231986651044</v>
       </c>
       <c r="O13" t="n">
-        <v>0.689021361057398</v>
+        <v>0.4494287881022708</v>
       </c>
       <c r="P13" t="n">
-        <v>83.6566952397301</v>
+        <v>85.36587466711823</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.6306040593263</v>
+        <v>135.3397834867145</v>
       </c>
     </row>
     <row r="14">
@@ -1182,547 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9336992287618041</v>
+        <v>0.9730026833733667</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7548622547868671</v>
+        <v>0.8025577300062734</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8234861844344143</v>
+        <v>0.9817733576716491</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8542581491337895</v>
+        <v>0.6320975775483222</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8421209215057022</v>
+        <v>0.8465804250663422</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4433535625567961</v>
+        <v>0.1805311805935096</v>
       </c>
       <c r="H14" t="n">
-        <v>1.639237230995747</v>
+        <v>1.320297368586107</v>
       </c>
       <c r="I14" t="n">
-        <v>1.971986995777626</v>
+        <v>0.07193504902520084</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6424442302653894</v>
+        <v>0.9154802650567322</v>
       </c>
       <c r="K14" t="n">
-        <v>1.307215613021508</v>
+        <v>0.4937076570409665</v>
       </c>
       <c r="L14" t="n">
-        <v>1.265616902789581</v>
+        <v>1.033041622859</v>
       </c>
       <c r="M14" t="n">
-        <v>0.665848002592781</v>
+        <v>0.4248896098912159</v>
       </c>
       <c r="N14" t="n">
-        <v>1.093601088806865</v>
+        <v>1.038113858767012</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6941945305585366</v>
+        <v>0.4429780402270297</v>
       </c>
       <c r="P14" t="n">
-        <v>83.6267754352962</v>
+        <v>85.42370354091521</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.6006842548924</v>
+        <v>135.3976123605114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_13</t>
+          <t>model_24_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9327237489716302</v>
+        <v>0.9736960206314464</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7542102022103528</v>
+        <v>0.8009541579603934</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8212734263997834</v>
+        <v>0.9821090227978221</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8438345238746192</v>
+        <v>0.6562344117910752</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8378533961965579</v>
+        <v>0.8561184134600592</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4498766004053608</v>
+        <v>0.1758948311562057</v>
       </c>
       <c r="H15" t="n">
-        <v>1.643597509577324</v>
+        <v>1.331020462240677</v>
       </c>
       <c r="I15" t="n">
-        <v>1.996707610734098</v>
+        <v>0.07061028021302376</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6883925825499363</v>
+        <v>0.8554186996478002</v>
       </c>
       <c r="K15" t="n">
-        <v>1.342550096642017</v>
+        <v>0.4630141949792825</v>
       </c>
       <c r="L15" t="n">
-        <v>1.221830588865631</v>
+        <v>1.09203873989889</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6707284103162477</v>
+        <v>0.4193981773401093</v>
       </c>
       <c r="N15" t="n">
-        <v>1.094978236745934</v>
+        <v>1.037135029696781</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6992827073426281</v>
+        <v>0.43725282602339</v>
       </c>
       <c r="P15" t="n">
-        <v>83.59756391028947</v>
+        <v>85.47573802559424</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.5714727298857</v>
+        <v>135.4496468451905</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_14</t>
+          <t>model_24_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.931755470116455</v>
+        <v>0.9742128579971159</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7535631992175774</v>
+        <v>0.7989710131569691</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8195412678951582</v>
+        <v>0.9821002901676402</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8335604141884176</v>
+        <v>0.6809239399146814</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8339499031866835</v>
+        <v>0.865658716564249</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4563514855684319</v>
+        <v>0.1724387373121574</v>
       </c>
       <c r="H16" t="n">
-        <v>1.647924021569188</v>
+        <v>1.344281760672718</v>
       </c>
       <c r="I16" t="n">
-        <v>2.016059036767248</v>
+        <v>0.07064474526527692</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7336818556707589</v>
+        <v>0.7939818229887636</v>
       </c>
       <c r="K16" t="n">
-        <v>1.374870446219004</v>
+        <v>0.4323132841270202</v>
       </c>
       <c r="L16" t="n">
-        <v>1.182918581504905</v>
+        <v>1.157459069042962</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6755379231164095</v>
+        <v>0.4152574349872106</v>
       </c>
       <c r="N16" t="n">
-        <v>1.096345218659122</v>
+        <v>1.036405376945248</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7042969710597566</v>
+        <v>0.4329358036960101</v>
       </c>
       <c r="P16" t="n">
-        <v>83.56898392939529</v>
+        <v>85.51542650321296</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.5428927489915</v>
+        <v>135.4893353228092</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_15</t>
+          <t>model_24_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9307980428542236</v>
+        <v>0.9744538572567112</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7529196497053913</v>
+        <v>0.796518233848531</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8181604335161174</v>
+        <v>0.9815873388932352</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8235481025373915</v>
+        <v>0.7054230608090326</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8303530922468205</v>
+        <v>0.8748162980143892</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4627538060795195</v>
+        <v>0.1708271741535438</v>
       </c>
       <c r="H17" t="n">
-        <v>1.65222744012045</v>
+        <v>1.360683507202254</v>
       </c>
       <c r="I17" t="n">
-        <v>2.031485520128147</v>
+        <v>0.0726692089271587</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7778170976317346</v>
+        <v>0.7330187514749753</v>
       </c>
       <c r="K17" t="n">
-        <v>1.404651513238883</v>
+        <v>0.402843980201067</v>
       </c>
       <c r="L17" t="n">
-        <v>1.148340456126529</v>
+        <v>1.230613123639722</v>
       </c>
       <c r="M17" t="n">
-        <v>0.680260101784251</v>
+        <v>0.41331244132441</v>
       </c>
       <c r="N17" t="n">
-        <v>1.09769688067639</v>
+        <v>1.036065142696408</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7092201826497457</v>
+        <v>0.4309080076262922</v>
       </c>
       <c r="P17" t="n">
-        <v>83.54112020529426</v>
+        <v>85.53420582204598</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.5150290248905</v>
+        <v>135.5081146416422</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_16</t>
+          <t>model_24_7_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9298577666810607</v>
+        <v>0.9742958226456317</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7522818843353365</v>
+        <v>0.7934906764308246</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8170388188407451</v>
+        <v>0.9803634784918017</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8138893447416645</v>
+        <v>0.7288049435453652</v>
       </c>
       <c r="F18" t="n">
-        <v>0.827025324868749</v>
+        <v>0.8831059778106833</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4690414371790338</v>
+        <v>0.1718839523255146</v>
       </c>
       <c r="H18" t="n">
-        <v>1.656492180086646</v>
+        <v>1.380928797595077</v>
       </c>
       <c r="I18" t="n">
-        <v>2.044016038189979</v>
+        <v>0.07749941607069728</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8203938398681974</v>
+        <v>0.6748357907259337</v>
       </c>
       <c r="K18" t="n">
-        <v>1.432204939029088</v>
+        <v>0.3761676033983155</v>
       </c>
       <c r="L18" t="n">
-        <v>1.118021760352728</v>
+        <v>1.313072398662804</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6848659994327604</v>
+        <v>0.4145888955646481</v>
       </c>
       <c r="N18" t="n">
-        <v>1.099024329391444</v>
+        <v>1.036288250382638</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7140221628966746</v>
+        <v>0.4322388031661618</v>
       </c>
       <c r="P18" t="n">
-        <v>83.51412832448916</v>
+        <v>85.52187145132041</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.4880371440854</v>
+        <v>135.4957802709166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_17</t>
+          <t>model_24_7_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9289418389836488</v>
+        <v>0.9735902786014325</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7516541640745458</v>
+        <v>0.7897670346502943</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8161114957191594</v>
+        <v>0.9781649332129781</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8046544229812665</v>
+        <v>0.7499903782583246</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8239414325242072</v>
+        <v>0.8899486451850032</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4751662499090863</v>
+        <v>0.1766019285978056</v>
       </c>
       <c r="H19" t="n">
-        <v>1.66068974836094</v>
+        <v>1.405828807327276</v>
       </c>
       <c r="I19" t="n">
-        <v>2.054375958917949</v>
+        <v>0.08617640986731641</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8611022717061212</v>
+        <v>0.6221184227425534</v>
       </c>
       <c r="K19" t="n">
-        <v>1.457739115312035</v>
+        <v>0.3541477452495301</v>
       </c>
       <c r="L19" t="n">
-        <v>1.090974417808581</v>
+        <v>1.406682210849498</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6893230374135818</v>
+        <v>0.4202403224320646</v>
       </c>
       <c r="N19" t="n">
-        <v>1.10031740378779</v>
+        <v>1.037284312562683</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7186689462116801</v>
+        <v>0.4381308229753906</v>
       </c>
       <c r="P19" t="n">
-        <v>83.48818107274907</v>
+        <v>85.46771414031906</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.4620898923453</v>
+        <v>135.4416229599153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_18</t>
+          <t>model_24_7_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9280570455227678</v>
+        <v>0.9721621349707772</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7510412625938039</v>
+        <v>0.7852085030307849</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8153327936259797</v>
+        <v>0.9746566783719725</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7958915364416952</v>
+        <v>0.7677888839546196</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8210834590290251</v>
+        <v>0.8946787797872624</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4810828678560972</v>
+        <v>0.186151931631995</v>
       </c>
       <c r="H20" t="n">
-        <v>1.664788223384813</v>
+        <v>1.436311729257044</v>
       </c>
       <c r="I20" t="n">
-        <v>2.063075506862199</v>
+        <v>0.1000224315006094</v>
       </c>
       <c r="J20" t="n">
-        <v>0.899729926455654</v>
+        <v>0.5778290141437338</v>
       </c>
       <c r="K20" t="n">
-        <v>1.481402716658927</v>
+        <v>0.3389260652717329</v>
       </c>
       <c r="L20" t="n">
-        <v>1.066815024475961</v>
+        <v>1.513939822650655</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6936013753274263</v>
+        <v>0.4314532786200553</v>
       </c>
       <c r="N20" t="n">
-        <v>1.101566523967857</v>
+        <v>1.039300515335373</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7231294218278974</v>
+        <v>0.4498211379223232</v>
       </c>
       <c r="P20" t="n">
-        <v>83.46343148254037</v>
+        <v>85.36238420393468</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.4373403021366</v>
+        <v>135.3362930235309</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_19</t>
+          <t>model_24_7_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9272088902044411</v>
+        <v>0.9698116071667702</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7504477655912669</v>
+        <v>0.7796577020932417</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8146694088740067</v>
+        <v>0.9694201551578584</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7876323317856765</v>
+        <v>0.7810008557017252</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8184373605083406</v>
+        <v>0.8965760438869727</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4867544863751444</v>
+        <v>0.2018699218805751</v>
       </c>
       <c r="H21" t="n">
-        <v>1.66875694057358</v>
+        <v>1.473429960685483</v>
       </c>
       <c r="I21" t="n">
-        <v>2.07048674603289</v>
+        <v>0.1206894061053049</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9361373025545837</v>
+        <v>0.5449526353573155</v>
       </c>
       <c r="K21" t="n">
-        <v>1.503312024293737</v>
+        <v>0.3328206265501034</v>
       </c>
       <c r="L21" t="n">
-        <v>1.045217500944831</v>
+        <v>1.637116013707594</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6976779245290369</v>
+        <v>0.4492993677722851</v>
       </c>
       <c r="N21" t="n">
-        <v>1.102763919711377</v>
+        <v>1.042618907529266</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7273795181686407</v>
+        <v>0.4684269720362608</v>
       </c>
       <c r="P21" t="n">
-        <v>83.43999083554299</v>
+        <v>85.2002634801855</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.4138996551392</v>
+        <v>135.1741722997817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_20</t>
+          <t>model_24_7_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9264018305606193</v>
+        <v>0.9663163238786407</v>
       </c>
       <c r="C22" t="n">
-        <v>0.749877622046752</v>
+        <v>0.7729371324420371</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8140981021944447</v>
+        <v>0.9619342980654255</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7798908957639921</v>
+        <v>0.7885633920232287</v>
       </c>
       <c r="F22" t="n">
-        <v>0.815991208610272</v>
+        <v>0.8949093750977621</v>
       </c>
       <c r="G22" t="n">
-        <v>0.492151297929548</v>
+        <v>0.2252428973225968</v>
       </c>
       <c r="H22" t="n">
-        <v>1.67256949308102</v>
+        <v>1.518370440888467</v>
       </c>
       <c r="I22" t="n">
-        <v>2.07686930220328</v>
+        <v>0.1502338217600852</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9702623042376308</v>
+        <v>0.5261341869492446</v>
       </c>
       <c r="K22" t="n">
-        <v>1.523565803220455</v>
+        <v>0.3381840043546648</v>
       </c>
       <c r="L22" t="n">
-        <v>1.025896200280618</v>
+        <v>1.779018680869725</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7015349584515002</v>
+        <v>0.474597616220938</v>
       </c>
       <c r="N22" t="n">
-        <v>1.103903298032067</v>
+        <v>1.047553425112507</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7314007540103442</v>
+        <v>0.4948022192959667</v>
       </c>
       <c r="P22" t="n">
-        <v>83.41793818729251</v>
+        <v>84.9811518308199</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.3918470068887</v>
+        <v>134.9550606504161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_7_21</t>
+          <t>model_24_7_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9256386174077723</v>
+        <v>0.9614338522488921</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7493338241786668</v>
+        <v>0.7648468713315468</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8136011348548863</v>
+        <v>0.9515557785569588</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7726701866397525</v>
+        <v>0.7897129601896297</v>
       </c>
       <c r="F23" t="n">
-        <v>0.813733823531722</v>
+        <v>0.8889895409481128</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4972549077969096</v>
+        <v>0.2578920075924403</v>
       </c>
       <c r="H23" t="n">
-        <v>1.676205871928865</v>
+        <v>1.572470054186542</v>
       </c>
       <c r="I23" t="n">
-        <v>2.082421349944105</v>
+        <v>0.1911947017840087</v>
       </c>
       <c r="J23" t="n">
-        <v>1.002091891193754</v>
+        <v>0.5232736269054579</v>
       </c>
       <c r="K23" t="n">
-        <v>1.542256620568929</v>
+        <v>0.3572341643447333</v>
       </c>
       <c r="L23" t="n">
-        <v>1.008603741575128</v>
+        <v>1.942875214797099</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7051630363234517</v>
+        <v>0.5078306879191531</v>
       </c>
       <c r="N23" t="n">
-        <v>1.104980775424321</v>
+        <v>1.054446326236858</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7351832866684612</v>
+        <v>0.529450091658317</v>
       </c>
       <c r="P23" t="n">
-        <v>83.39730498283723</v>
+        <v>84.71042871382136</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.3712138024335</v>
+        <v>134.6843375334176</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_24_7_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9549004924709292</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7551604400797326</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9374931273745977</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7841394478421538</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8782111766559626</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3015806145110337</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.637243264569338</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2466957361491779</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.537142631972513</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3919191840608455</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.132337731620402</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5491635589795028</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.063669892982217</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.5725425886105441</v>
+      </c>
+      <c r="P24" t="n">
+        <v>84.39743584081603</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>134.3713446604123</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_24_7_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9464225645247528</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7436169328713867</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.918771846180184</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7720514696612608</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.86205735945478</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3582725577243842</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.71443475042451</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.320582975294697</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5672220899855883</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4439025326401427</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.351524835466588</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5985587337299358</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.075638732435643</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.624040618212211</v>
+      </c>
+      <c r="P25" t="n">
+        <v>84.05292249564765</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>134.0268313152439</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_24_7_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9356587764374131</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7299078650299599</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8941839495855713</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7541672805548194</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.8400650311261844</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4302500582271114</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.806107350204585</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4176239724842247</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6117247112903996</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5146743418873122</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.605116171373123</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6559344923291589</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.090834668558946</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6838589816391968</v>
+      </c>
+      <c r="P26" t="n">
+        <v>83.68677741711458</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>133.6606862367108</v>
       </c>
     </row>
   </sheetData>
